--- a/data/vectors.xlsx
+++ b/data/vectors.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE98F8-4530-4710-8720-524B5171E442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11292" windowHeight="5580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="111">
   <si>
     <t>component</t>
   </si>
@@ -27,39 +39,15 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>ATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTAAAGTTCTGCTATGTGGCGCGGTATTATCCCGTATTGACGCCGGGCAAGAGCAACTCGGTCGCCGCATACACTATTCTCAGAATGACTTGGTTGAGTACTCACCAGTCACAGAAAAGCATCTTACGGATGGCATGACAGTAAGAGAATTATGCAGTGCTGCCATAACCATGAGTGATAACACTGCGGCCAACTTACTTCTGACAACGATCGGAGGACCGAAGGAGCTAACCGCTTTTTTGCACAACATGGGGGATCATGTAACTCGCCTTGATCGTTGGGAACCGGAGCTGAATGAAGCCATACCAAACGACGAGCGTGACACCACGATGCCTGTAGCAATGGCAACAACGTTGCGCAAACTATTAACTGGCGAACTACTTACTCTAGCTTCCCGGCAACAATTAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGAAGCCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAA</t>
-  </si>
-  <si>
-    <t>puc</t>
-  </si>
-  <si>
     <t>TTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTTCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAA</t>
   </si>
   <si>
-    <t>itr5</t>
-  </si>
-  <si>
     <t>CTGCGCGCTCGCTCGCTCACTGAGGCCGCCCGGGCAAAGCCCGGGCGTCGGGCGACCTTTGGTCGCCCGGCCTCAGTGAGCGAGCGAGCGCGCAGAGAGGGAGTGGCCAACTCCATCACTAGGGGTTCCT</t>
   </si>
   <si>
-    <t>kozak</t>
-  </si>
-  <si>
     <t>GCCACC</t>
   </si>
   <si>
-    <t>bgh</t>
-  </si>
-  <si>
-    <t>CTGTGCCTTCTAGTTGCCAGCCATCTGTTGTTTGCCCCTCCCCCGTGCCTTCCTTGACCCTGGAAGGTGCCACTCCCACTGTCCTTTCCTAATAAAATGAGGAAATTGCATCGCATTGTCTGAGTAGGTGTCATTCTATTCTGGGGGGTGGGGTGGGGCAGGACAGCAAGGGGGAGGATTGGGAAGAGAATAGCAGGCATGCTGGGGA</t>
-  </si>
-  <si>
-    <t>itr3</t>
-  </si>
-  <si>
     <t>ssAAV</t>
   </si>
   <si>
@@ -109,16 +97,287 @@
   </si>
   <si>
     <t>ACCCAGCTTTCTTGTACAAAGTGGGAATTC</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>CAACTTTGTATAGAAAAGTTG</t>
+  </si>
+  <si>
+    <t>break3</t>
+  </si>
+  <si>
+    <t>ACCCAGCTTTCTTGTACAAAGTGGTGATGGCCGGCCGCTTCGAG</t>
+  </si>
+  <si>
+    <t>CGC</t>
+  </si>
+  <si>
+    <t>TCTGGCTAACTAGAGAACCCACTGCGCCACC</t>
+  </si>
+  <si>
+    <t>CTCGAGTCTAGAGGGCCCGTTTAAACCCGCTGATCAGCCTCGA</t>
+  </si>
+  <si>
+    <t>GCGGCCGCGGCGCTCTTCCGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTT</t>
+  </si>
+  <si>
+    <t>TTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCTCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAA</t>
+  </si>
+  <si>
+    <t>break8</t>
+  </si>
+  <si>
+    <t>ACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCGGCGCGCCGCGGCCGC</t>
+  </si>
+  <si>
+    <t>lentiviral</t>
+  </si>
+  <si>
+    <t>AATGTAGTCTTATGCAATACTCTTGTAGTCTTGCAACATGGTAACGATGAGTTAGCAACATGCCTTACAAGGAGAGAAAAAGCACCGTGCATGCCGATTGGTGGAAGTAAGGTGGTACGATCGTGCCTTATTAGGAAGGCAACAGACGGGTCTGACATGGATTGGACGAACCACTGAATTGCCGCATTGCAGAGATATTGTATTTAAGTGCCTAGCTCGATACATAAAC</t>
+  </si>
+  <si>
+    <t>GGGTCTCTCTGGTTAGACCAGATCTGAGCCTGGGAGCTCTCTGGCTAACTAGGGAACCCACTGCTTAAGCCTCAATAAAGCTTGCCTTGAGTGCTTCAAGTAGTGTGTGCCCGTCTGTTGTGTGACTCTGGTAACTAGAGATCCCTCAGACCCTTTTAGTCAGTGTGGAAAATCTCTAGCA</t>
+  </si>
+  <si>
+    <t>GTGGCGCCCGAACAGGGACTTGAAAGCGAAAGGGAAACCAGAGGAGCTCTCTCGACGCAGGACTCGGCTTGCTGAAGCGCGCACGGCAAGAGGCGAGGGGCGGCGACTGG</t>
+  </si>
+  <si>
+    <t>TGAGTACGCCAAAAATTTTGACTAGCGGAGGCTAGAAGGAGAGAG</t>
+  </si>
+  <si>
+    <t>ATGGGTGCGAGAGCGTCAGTATTAAGCGGGGGAGAATTAGATCGCGATGGGAAAAAATTCGGTTAAGGCCAGGGGGAAAGAAAAAATATAAATTAAAACATATAGTATGGGCAAGCAGGGAGCTAGAACGATTCGCAGTTAATCCTGGCCTGTTAGAAACATCAGAAGGCTGTAGACAAATACTGGGACAGCTACAACCATCCCTTCAGACAGGATCAGAAGAACTTAGATCATTATATAATACAGTAGCAACCCTCTATTGTGTGCATCAAAGGATAGAGATAAAAGACACCAAGGAAGCTTTAGACAAGATAGAGGAAGAGCAAAACAAAAGTAAGACCACCGCACAGCAAGCGGCCGCTGATCTTCAGACCTGGAGGAGGAGATATGAGGGACAATTGGAGAAGTGAATTATATAAATATAAAGTAGTAAAAATTGAACCATTAGGAGTAGCACCCACCAAGGCAAAGAGAAGAGTGGTGCAGAGAGAAAAAAGAGCAGTGGGAAT</t>
+  </si>
+  <si>
+    <t>AGGAGCTTTGTTCCTTGGGTTCTTGGGAGCAGCAGGAAGCACTATGGGCGCAGCGTCAATGACGCTGACGGTACAGGCCAGACAATTATTGTCTGGTATAGTGCAGCAGCAGAACAATTTGCTGAGGGCTATTGAGGCGCAACAGCATCTGTTGCAACTCACAGTCTGGGGCATCAAGCAGCTCCAGGCAAGAATCCTGGCTGTGGAAAGATACCTAAAGGATCAACAGCTCCT</t>
+  </si>
+  <si>
+    <t>GGGGATTTGGGGTTGCTCTGGAAAACTCATTTGCACCACTGCTGTGCCTTGGAATGCTAGTTGGAGTAATAAATCTCTGGAACAGATTTGGAATCACACGACCTGGATGGAGTGGGACAGAGAAATTAACAATTACACAAGCTTAATACACTCCTTAATTGAAGAATCGCAAAACCAGCAAGAAAAGAATGAACAAGAATTATTGGAATTAGATAAATGGGCAAGTTTGTGGAATTGGTTTAACATAACAAATTGGCTGTGGTATATAAAATTATTCATAATGATAGTAGGAGGCTTGGTAGGTTTAAGAATAGTTTTTGCTGTACTTTCTATAGTGAATAGAGTTAGGCAGGGATATTCACCATTATCGTTTCAGACCCACCTCCCAACCCCGAGGGGACCCGACAGGCCCGAAGGAATAGAAGAAGAAGGTGGAGAGAGAGACAGAGACAGATCCATTCGATTAGTGAACGGATCTCGACGGTATCGCTAGC</t>
+  </si>
+  <si>
+    <t>TTTTAAAAGAAAAGGGGGGATTGGGGGGTACAGTGCAGGGGAAAGAATAGTAGACATAATAGCAACAGACATACAAACTAAAGAATTACAAAAACAAATTACAAAAATTCAAAATTTT</t>
+  </si>
+  <si>
+    <t>ACTAGTGATTATCGGATCAACTTTGTATAGAAAAGTTG</t>
+  </si>
+  <si>
+    <t>ACCCAGCTTTCTTGTACAAAGTGGTGATAATCGAATTC</t>
+  </si>
+  <si>
+    <t>GAATTCCCGCGGTTCGAA</t>
+  </si>
+  <si>
+    <t>CACGTGCGC</t>
+  </si>
+  <si>
+    <t>break9</t>
+  </si>
+  <si>
+    <t>GCGGGACTCTGGGTACCTTTAAGACCAATGACTTACAAGGCAGCTGTAGATCTTAGCCACTTTTTAAAAGAAAAGGGGGGA</t>
+  </si>
+  <si>
+    <t>CTGGAAGGGCTAATTCACTCCCAACGAAGACAAGATCTGCTTTTTGCTTGTACTGGGTCTCTCTGGTTAGACCAGATCTGAGCCTGGGAGCTCTCTGGCTAACTAGGGAACCCACTGCTTAAGCCTCAATAAAGCTTGCCTTGAGTGCTTCAAGTAGTGTGTGCCCGTCTGTTGTGTGACTCTGGTAACTAGAGATCCCTCAGACCCTTTTAGTCAGTGTGGAAAATCTCTAGCA</t>
+  </si>
+  <si>
+    <t>break10</t>
+  </si>
+  <si>
+    <t>GTAGTAGTTCATGTCATCTTATTATTCAGTATTTATAACTTGCAAAGAAATGAATATCAGAGAGTGAGAGGA</t>
+  </si>
+  <si>
+    <t>break11</t>
+  </si>
+  <si>
+    <t>AGCTATCCCGCCCCTAACTCCGCCCATCCCGCCCCTAACTCCGCCCAGTTCCGCCCATTCTCCGCCCCATGGCTGACTAATTTTTTTTATTTATGCAGAGGCCGAGGCCGCCTCGGCCTCTGAGCTATTCCAGAAGTAGTGAGGAGGCTTTTTTGGAGGCCTAGGGACGTACCCAATTCGCCCTATAGTGAGTCGTATTACGCGCGCTCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACATCCCCCTTTCGCCAGCTGGCGTAATAGCGAAGAGGCCCGCACCGATCGCCCTTCCCAACAGTTGCGCAGCCTGAATGGCGAATGGGACGCGCCCTGTAGCGGCGCATTAAGCGCGGCGGGTGTGGTGGTTACGCGCAGCGTGACCGCTACACTTGCCAGCGCCCTAGCGCCCGCTCCTTTCGCTTTCTTCCCTTCCTTTCTCGCCACGTTCGCCGGCTTTCCCCGTCAAGCTCTAAATCGGGGGCTCCCTTTAGGGTTCCGATTTAGTGCTTTACGGCACCTCGACCCCAAAAAACTTGATTAGGGTGATGGTTCACGTAGTGGGCCATCGCCCTGATAGACGGTTTTTCGCCCTTTGACGTTGGAGTCCACGTTCTTTAATAGTGGACTCTTGTTCCAAACTGGAACAACACTCAACCCTATCTCGGTCTATTCTTTTGATTTATAAGGGATTTTGCCGATTTCGGCCTATTGGTTAAAAAATGAGCTGATTTAACAAAAATTTAACGCGAATTTTAACAAAATATTAACGCTTACAATTTAGGTGGCACTTTTCGGGGAAATGTGCGCGGAACCCCTATTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGT</t>
+  </si>
+  <si>
+    <t>break12</t>
+  </si>
+  <si>
+    <t>TTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTTCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGAGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAA</t>
+  </si>
+  <si>
+    <t>break13</t>
+  </si>
+  <si>
+    <t>AACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCCAATACGCAAACCGCCTCTCCCCGCGCGTTGGCCGATTCATTAATGCAGCTGGCACGACAGGTTTCCCGACTGGAAAGCGGGCAGTGAGCGCAACGCAATTAATGTGAGTTAGCTCACTCATTAGGCACCCCAGGCTTTACACTTTATGCTTCCGGCTCGTATGTTGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGCTATGACCATGATTACGCCAAGCGCGCAATTAACCCTCACTAAAGGGAACAAAAGCTGGAGCTGCAAGCTT</t>
+  </si>
+  <si>
+    <t>scAAV</t>
+  </si>
+  <si>
+    <t>GGAGGGGTGGAGTCGTGACCTAGGCAACTTTGTATAGAAAAGTTG</t>
+  </si>
+  <si>
+    <t>GGCCACTCCCTCTCTGCGCGCTCGCTCGCTCACTGAGGCCGGGCGACCAAAGGTCGCCCGACGCCCGGGCTTTGCCCGGGCGGCCTCAGTGAGCGAGCGAGCGCGCAGAGAGGGAGTGGCCAACTCCATCACTAGGGGTTCCT</t>
+  </si>
+  <si>
+    <t>ACTAGT</t>
+  </si>
+  <si>
+    <t>CCACTCCCTCTCTGCGCGCTCGCTCGCTCACTGAGGCCGGGCGACCAAAGGTCGCCCGACGCCCGGGCTTTGCCCGGGCGGCCTCAGTGAGCGAGCGAGCGCGCAGAGAGGGA</t>
+  </si>
+  <si>
+    <t>CAGATCCGGGCCCGCATGCGTCGACAATTCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACATCCCCCTTTCGCCAGCTGGCGTAATAGCGAAGAGGCCCGCACCGATCGCCCTTCCCAACAGTTGCGCAGCCTGAATGGCGAATGGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATATGGTGCACTCTCAGTACAATCTGCTCTGATGCCGCATAGTTAAGCCAGCCCCGACACCCGCCAACACCCGCTGACGCGCCCTGACGGGCTTGTCTGCTCCCGGCATCCGCTTACAGACAAGCTGTGACCGTCTCCGGGAGCTGCATGTGTCAGAGGTTTTCACCGTCATCACCGAAACGCGCGAGACGAAAGGGCCTCGTGATACGCCTATTTTTATAGGTTAATGTCATGATAATAATGGTTTCTTAGACGTCAGGTGGCACTTTTCGGGGAAATGTGCGCGGAACCCCTATTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGT</t>
+  </si>
+  <si>
+    <t>AACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCCAATACGCAAACCGCCTCTCCCCGCGCGTTGGCCGATTCATTAATGCAGCTGGCACGACAGGTTTCCCGACTGGAAAGCGGGCAGTGAGCGCAACGCAATTAATGTGAGTTAGCTCACTCATTAGGCACCCCAGGCTTTACACTTTATGCTTCCGGCTCGTATGTTGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGCTATGACCATGATTACGCCAAGCTCTCGAGATCTAGAAAGCTTCCCGGGGGGATCTG</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>TTTTT</t>
+  </si>
+  <si>
+    <t>GAATTCCAACTTTGTATAGAAAAGTTG</t>
+  </si>
+  <si>
+    <t>GGCGCTCTTCCGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTT</t>
+  </si>
+  <si>
+    <t>TTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAA</t>
+  </si>
+  <si>
+    <t>GAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAG</t>
+  </si>
+  <si>
+    <t>ACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTC</t>
+  </si>
+  <si>
+    <t>CAAGTTTGTACAAAAAAGCAGGCTGCCACC</t>
+  </si>
+  <si>
+    <t>ACCCAGCTTTCTTGTACAAAGTGGTGGTACC</t>
+  </si>
+  <si>
+    <t>CTTTAAGACCAATGACTTACAAGGCAGCTGTAGATCTTAGCCACTTTTTAAAAGAAAAGGGGGGA</t>
+  </si>
+  <si>
+    <t>ATCGAT</t>
+  </si>
+  <si>
+    <t>ATCGATAGATCT</t>
+  </si>
+  <si>
+    <t>AGGAACCCCTAGTGATGGAGTTGGCCACTCCCTCTCTGCGCGCTCGCTCGCTCACTGAGGCCGGGCGACCAAAGGTCGCCCGACGCCCGGGCTTTGCCCGGGCGGCCTCAGTGAGCGAGCGAGCGCGCAG</t>
+  </si>
+  <si>
+    <t>CTGCCTGCAGGCAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACATCCCCCTTTCGCCAGCTGGCGTAATAGCGAAGAGGCCCGCACCGATCGCCCTTCCCAACAGTTGCGCAGCCTGAATGGCGAATGGCGCCTGATGCGGTATTTTCTCCTTACGCATCTGTGCGGTATTTCACACCGCATACGTCAAAGCAACCATAGTACGCGCCCTGTAGCGGCGCATTAAGCGCGGCGGGTGTGGTGGTTACGCGCAGCGTGACCGCTACACTTGCCAGCGCCCTAGCGCCCGCTCCTTTCGCTTTCTTCCCTTCCTTTCTCGCCACGTTCGCCGGCTTTCCCCGTCAAGCTCTAAATCGGGGGCTCCCTTTAGGGTTCCGATTTAGTGCTTTACGGCACCTCGACCCCAAAAAACTTGATTTGGGTGATGGTTCACGTAGTGGGCCATCGCCCTGATAGACGGTTTTTCGCCCTTTGACGTTGGAGTCCACGTTCTTTAATAGTGGACTCTTGTTCCAAACTGGAACAACACTCAACCCTATCTCGGGCTATTCTTTTGATTTATAAGGGATTTTGCCGATTTCGGCCTATTGGTTAAAAAATGAGCTGATTTAACAAAAATTTAACGCGAATTTTAACAAAATATTAACGTTTACAATTTTATGGTGCACTCTCAGTACAATCTGCTCTGATGCCGCATAGTTAAGCCAGCCCCGACACCCGCCAACACCCGCTGACGCGCCCTGACGGGCTTGTCTGCTCCCGGCATCCGCTTACAGACAAGCTGTGACCGTCTCCGGGAGCTGCATGTGTCAGAGGTTTTCACCGTCATCACCGAAACGCGCGAGACGAAAGGGCCTCGTGATACGCCTATTTTTATAGGTTAATGTCATGATAATAATGGTTTCTTAGACGTCAGGTGGCACTTTTCGGGGAAATGTGCGCGGAACCCCTATTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGT</t>
+  </si>
+  <si>
+    <t>AACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGTTATCCCCTGATTCTGTGGATAACCGTATTACCGCCTTTGAGTGAGCTGATACCGCTCGCCGCAGCCGAACGACCGAGCGCAGCGAGTCAGTGAGCGAGGAAGCGGAAGAGCGCCCAATACGCAAACCGCCTCTCCCCGCGCGTTGGCCGATTCATTAATGCAGCTGGCACGACAGGTTTCCCGACTGGAAAGCGGGCAGTGAGCGCAACGCAATTAATGTGAGTTAGCTCACTCATTAGGCACCCCAGGCTTTACACTTTATGCTTCCGGCTCGTATGTTGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGCTATGACCATGATTACGAATTGCCTGCAGGCAG</t>
+  </si>
+  <si>
+    <t>GGAGGGGTGGAGTCGTGACCTAGG</t>
+  </si>
+  <si>
+    <t>GAATTCCCTAGGCAACTTTGTATAGAAAAGTTG</t>
+  </si>
+  <si>
+    <t>pUC_ori</t>
+  </si>
+  <si>
+    <t>5`ITR</t>
+  </si>
+  <si>
+    <t>3`ITR</t>
+  </si>
+  <si>
+    <t>Kozak_sequence</t>
+  </si>
+  <si>
+    <t>mrna</t>
+  </si>
+  <si>
+    <t>TAATACGACTCACTATAGG</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>GAAGAGC</t>
+  </si>
+  <si>
+    <t>CGTACG</t>
+  </si>
+  <si>
+    <t>GGCGCGCC</t>
+  </si>
+  <si>
+    <t>TAGGCGCGATTCCGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTT</t>
+  </si>
+  <si>
+    <t>rnai</t>
+  </si>
+  <si>
+    <t>5`LTR</t>
+  </si>
+  <si>
+    <t>3`LTR</t>
+  </si>
+  <si>
+    <t>RSV</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>RRE</t>
+  </si>
+  <si>
+    <t>cPPT</t>
+  </si>
+  <si>
+    <t>Terminator</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>PolyA</t>
+  </si>
+  <si>
+    <t>SapI</t>
+  </si>
+  <si>
+    <t>BsiWI</t>
+  </si>
+  <si>
+    <t>AscI</t>
+  </si>
+  <si>
+    <t>transcription</t>
+  </si>
+  <si>
+    <t>CGTACGGGCGCGCCTAGGCGCGATTCCGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -145,23 +404,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +464,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -233,6 +498,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -267,9 +533,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,197 +709,1868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" customHeight="1">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999" customHeight="1">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" t="s">
+        <v>58</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>96</v>
+      </c>
+      <c r="B111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>96</v>
+      </c>
+      <c r="B112" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>88</v>
+      </c>
+      <c r="B117" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118" t="s">
+        <v>109</v>
+      </c>
+      <c r="C118" t="s">
+        <v>106</v>
+      </c>
+      <c r="D118" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" t="s">
+        <v>109</v>
+      </c>
+      <c r="C119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D119" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>88</v>
+      </c>
+      <c r="B120" t="s">
+        <v>109</v>
+      </c>
+      <c r="C120" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>88</v>
+      </c>
+      <c r="B121" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>88</v>
+      </c>
+      <c r="B124" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" t="s">
+        <v>109</v>
+      </c>
+      <c r="C125" t="s">
+        <v>104</v>
+      </c>
+      <c r="D125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>96</v>
+      </c>
+      <c r="B126" t="s">
+        <v>109</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>96</v>
+      </c>
+      <c r="B127" t="s">
+        <v>109</v>
+      </c>
+      <c r="C127" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>96</v>
+      </c>
+      <c r="B128" t="s">
+        <v>109</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129" t="s">
+        <v>109</v>
+      </c>
+      <c r="C129" t="s">
+        <v>84</v>
+      </c>
+      <c r="D129" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>96</v>
+      </c>
+      <c r="B130" t="s">
+        <v>109</v>
+      </c>
+      <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>96</v>
+      </c>
+      <c r="B131" t="s">
+        <v>109</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -640,12 +2578,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
